--- a/Final Project Baseline Values.xlsx
+++ b/Final Project Baseline Values.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Unique cookies to view page per day:</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Probability of payment, given click</t>
-  </si>
-  <si>
-    <t>f</t>
   </si>
 </sst>
 </file>
@@ -434,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -505,23 +502,6 @@
         <v>0.10931249999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A13">
-        <f>B2*0.08</f>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A19">
-        <f>0.82*3200</f>
-        <v>2624</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Final Project Baseline Values.xlsx
+++ b/Final Project Baseline Values.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12960" yWindow="0" windowWidth="12640" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="2680" yWindow="0" windowWidth="22920" windowHeight="14440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,8 +86,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -97,11 +103,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,7 +446,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
